--- a/conceito_funcoes.xlsx
+++ b/conceito_funcoes.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Vivência 1" sheetId="1" r:id="rId1"/>
     <sheet name="Vivência 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Vivência 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
   <si>
     <t>Produto</t>
   </si>
@@ -152,6 +153,123 @@
   </si>
   <si>
     <t>Quantidade de Alunos</t>
+  </si>
+  <si>
+    <t>Intervalos não sequenciais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana </t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Marcos</t>
+  </si>
+  <si>
+    <t>Adriana</t>
+  </si>
+  <si>
+    <t>Gilberto</t>
+  </si>
+  <si>
+    <t>Regiane</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>Joaquim</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Leslie</t>
+  </si>
+  <si>
+    <t>Carla</t>
+  </si>
+  <si>
+    <t>Flavio</t>
+  </si>
+  <si>
+    <t>Marcia</t>
+  </si>
+  <si>
+    <t>Ricardo</t>
+  </si>
+  <si>
+    <t>Andre</t>
+  </si>
+  <si>
+    <t>Fabiana</t>
+  </si>
+  <si>
+    <t>Adriano</t>
+  </si>
+  <si>
+    <t>Roberta</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Tonico</t>
+  </si>
+  <si>
+    <t>Viviane</t>
+  </si>
+  <si>
+    <t>Beto</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Mara</t>
+  </si>
+  <si>
+    <t>Guilherme</t>
+  </si>
+  <si>
+    <t>Daiane</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Jaime</t>
+  </si>
+  <si>
+    <t>Lista de Convidados</t>
+  </si>
+  <si>
+    <t>Total de Crianças (C)</t>
+  </si>
+  <si>
+    <t>Total de Adultos</t>
+  </si>
+  <si>
+    <t>Total Geral de Convidados</t>
+  </si>
+  <si>
+    <t>Calcular os seguintes resultados
+• Total de crianças
+• Total de adultos
+• Total de convidados</t>
   </si>
 </sst>
 </file>
@@ -164,7 +282,7 @@
     <numFmt numFmtId="164" formatCode="_-[$R$-416]* #,##0.00_-;\-[$R$-416]* #,##0.00_-;_-[$R$-416]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,8 +321,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,8 +355,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -268,13 +418,330 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="7" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="7" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="7" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -297,13 +764,107 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -614,13 +1175,13 @@
       <c r="C4" s="7">
         <v>872</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -695,13 +1256,13 @@
       <c r="C10" s="7">
         <v>1190</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="5"/>
       <c r="L10" s="11">
         <f>COUNT(C4:C18)</f>
@@ -798,7 +1359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:H22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
@@ -1086,19 +1647,19 @@
       <c r="B18" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="16">
         <f>AVERAGE(C6:C15)</f>
         <v>4.8499999999999996</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="16">
         <f t="shared" ref="D18:F18" si="2">AVERAGE(D6:D15)</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="16">
         <f t="shared" si="2"/>
         <v>5.46</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="16">
         <f t="shared" si="2"/>
         <v>5.4</v>
       </c>
@@ -1107,7 +1668,7 @@
       <c r="B20" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="16">
         <f>AVERAGE(G6:G15)</f>
         <v>5.1524999999999999</v>
       </c>
@@ -1125,4 +1686,362 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:R22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="4.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" customWidth="1"/>
+    <col min="11" max="11" width="5" style="17" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="57"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="45"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="31"/>
+      <c r="H7" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="58"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="33"/>
+      <c r="J8" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" s="59"/>
+      <c r="O8" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="48"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="34"/>
+      <c r="J9" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" s="59"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="51"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="33"/>
+      <c r="J10" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="59"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="51"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="M11" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" s="49"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="51"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="31"/>
+      <c r="L12" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="59"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="54"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="39"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="59"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="39"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="59"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="39"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="59"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="39"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="59"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="40"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="40"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="64"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="27">
+        <f>COUNTA(C7:C17,E7:E17,G7:G17,I7:I17,K7:K17,M7:M17)</f>
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="28"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="O8:R12"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/conceito_funcoes.xlsx
+++ b/conceito_funcoes.xlsx
@@ -380,7 +380,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -470,17 +470,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -741,7 +730,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -768,103 +757,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1175,13 +1167,13 @@
       <c r="C4" s="7">
         <v>872</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -1256,13 +1248,13 @@
       <c r="C10" s="7">
         <v>1190</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
       <c r="K10" s="5"/>
       <c r="L10" s="11">
         <f>COUNT(C4:C18)</f>
@@ -1693,7 +1685,7 @@
   <dimension ref="B5:R22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1708,309 +1700,309 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="57"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="52"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="45"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="40"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="39" t="s">
+      <c r="E7" s="31"/>
+      <c r="F7" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="39" t="s">
+      <c r="G7" s="26"/>
+      <c r="H7" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="41" t="s">
+      <c r="I7" s="20"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="M7" s="58"/>
+      <c r="M7" s="41"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="39" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="39" t="s">
+      <c r="E8" s="28"/>
+      <c r="F8" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="33"/>
-      <c r="J8" s="39" t="s">
+      <c r="I8" s="28"/>
+      <c r="J8" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="41" t="s">
+      <c r="K8" s="25"/>
+      <c r="L8" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="M8" s="59"/>
-      <c r="O8" s="46" t="s">
+      <c r="M8" s="42"/>
+      <c r="O8" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="48"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="55"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="39" t="s">
+      <c r="G9" s="27"/>
+      <c r="H9" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="39" t="s">
+      <c r="I9" s="29"/>
+      <c r="J9" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="41" t="s">
+      <c r="K9" s="25"/>
+      <c r="L9" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="M9" s="59"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="51"/>
+      <c r="M9" s="42"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="58"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="39" t="s">
+      <c r="E10" s="28"/>
+      <c r="F10" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="39" t="s">
+      <c r="I10" s="28"/>
+      <c r="J10" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="41" t="s">
+      <c r="K10" s="25"/>
+      <c r="L10" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="M10" s="59"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="51"/>
+      <c r="M10" s="42"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="58"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="39" t="s">
+      <c r="D11" s="34"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="38" t="s">
+      <c r="K11" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="L11" s="41" t="s">
+      <c r="L11" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="M11" s="60" t="s">
+      <c r="M11" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="O11" s="49"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="51"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="58"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="39" t="s">
+      <c r="C12" s="28"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="K12" s="31"/>
-      <c r="L12" s="41" t="s">
+      <c r="K12" s="26"/>
+      <c r="L12" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="M12" s="59"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="54"/>
+      <c r="M12" s="42"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="61"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="39"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="59"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="42"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="39"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="39" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="59"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="42"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="39"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="39" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="39" t="s">
+      <c r="E15" s="28"/>
+      <c r="F15" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="59"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="42"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="39"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="39" t="s">
+      <c r="B16" s="34"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="39" t="s">
+      <c r="E16" s="20"/>
+      <c r="F16" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="59"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="42"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="40"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="40" t="s">
+      <c r="B17" s="35"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="62" t="s">
+      <c r="G17" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="40"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="64"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="47"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="27">
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="62">
         <f>COUNTA(C7:C17,E7:E17,G7:G17,I7:I17,K7:K17,M7:M17)</f>
         <v>10</v>
       </c>
@@ -2019,22 +2011,28 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="28"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="63">
+        <f>F22-F20</f>
+        <v>25</v>
+      </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="29"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="63">
+        <f>COUNTA(B7:B17,D7:D17,F7:F17,H7:H17,J7:J17,L7:L17)</f>
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/conceito_funcoes.xlsx
+++ b/conceito_funcoes.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Vivência 1" sheetId="1" r:id="rId1"/>
     <sheet name="Vivência 2" sheetId="2" r:id="rId2"/>
     <sheet name="Vivência 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Vivência 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Planilha2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="106">
   <si>
     <t>Produto</t>
   </si>
@@ -270,6 +272,84 @@
 • Total de crianças
 • Total de adultos
 • Total de convidados</t>
+  </si>
+  <si>
+    <t>Maior Média</t>
+  </si>
+  <si>
+    <t>Menor Média</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Trabalhando com Funções</t>
+  </si>
+  <si>
+    <t>Calcular a somatória de um ou mais intervalos de células</t>
+  </si>
+  <si>
+    <t>Calcular  a média entre um ou mais intervalos de células</t>
+  </si>
+  <si>
+    <t>=MÉDIA(CélulaInicial:CélulaFinal)</t>
+  </si>
+  <si>
+    <t>=SOMA(CélulaInicial:CélulaFinal)</t>
+  </si>
+  <si>
+    <t>Retornar o menor valor entre um ou mais intervalos de células</t>
+  </si>
+  <si>
+    <t>=MÍNIMO(Célulainicial:CélulaFinal)</t>
+  </si>
+  <si>
+    <t>Retornar o maior valor entre um ou mais intevalos de células</t>
+  </si>
+  <si>
+    <t>=MÁXIMO(Célulainicial:CélulaFinal)</t>
+  </si>
+  <si>
+    <t>Contar a quantidade células preenchidas em um ou mais intervalos de céluas</t>
+  </si>
+  <si>
+    <t>=CONT.VALORES(CélulasInicial:CélulasFinal)</t>
+  </si>
+  <si>
+    <t>Contar a quantidade de células vazias em um ou mais intervalos de células</t>
+  </si>
+  <si>
+    <t>=CONTAR.VAZIO(Célulainicial:CélulaFinal)</t>
+  </si>
+  <si>
+    <t>Contar a quantidade de células  que contém valorer númerico, em um ou mais intervalos de células</t>
+  </si>
+  <si>
+    <t>=CONT.NÚM(CéluaInicial:CélulaFinal)</t>
+  </si>
+  <si>
+    <t>Importante</t>
+  </si>
+  <si>
+    <t>; (ponto vírgula) - intervalo de células não sequências</t>
+  </si>
+  <si>
+    <t>Exemplos:</t>
+  </si>
+  <si>
+    <t>(a1:b10) - região da célula A1 até B10</t>
+  </si>
+  <si>
+    <t>(a1;b10) - célula A1 e B10</t>
+  </si>
+  <si>
+    <t>(a1:b10;c1:c10) - região da célula A1 até B10 e C1 até C10</t>
+  </si>
+  <si>
+    <t>(a1;c1:c10) - célula A1 e a região da célula C1 até C10</t>
+  </si>
+  <si>
+    <t>: (dois pontos) - intervalo de células sequências</t>
   </si>
 </sst>
 </file>
@@ -282,7 +362,7 @@
     <numFmt numFmtId="164" formatCode="_-[$R$-416]* #,##0.00_-;\-[$R$-416]* #,##0.00_-;_-[$R$-416]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,8 +409,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,6 +483,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="31">
     <border>
@@ -730,19 +852,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -812,9 +926,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -855,6 +966,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1141,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,195 +1290,197 @@
     <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="68" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="66">
         <v>872</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="66">
         <v>925</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="66">
         <v>978</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="8">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="4">
         <f>SUM(C4:C18)</f>
         <v>16371</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="C7" s="66"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="66">
         <v>1084</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="10">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="6">
         <f>COUNTA(B4:B18)</f>
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="66">
         <v>1137</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="66">
         <v>1190</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="11">
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="7">
         <f>COUNT(C4:C18)</f>
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="9"/>
+      <c r="C11" s="66"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="66">
         <v>1296</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="10">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="6">
         <f>COUNTBLANK(C4:C18)</f>
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="66">
         <v>1349</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="66">
         <v>1402</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="66">
         <v>1455</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="66">
         <v>1508</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="66">
         <v>1561</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="66">
         <v>1614</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F10:J10"/>
-    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="F4:L4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1363,313 +1503,313 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="11">
         <v>5.7</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="11">
         <v>5</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="11">
         <v>5</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="11">
         <v>10</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="11">
         <f>(C6+D6+E6+F6)/4</f>
         <v>6.4249999999999998</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="11">
         <f>AVERAGE(C6:F6)</f>
         <v>6.4249999999999998</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="11">
         <v>2</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="11">
         <v>3</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="11">
         <v>4</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="11">
         <v>6</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="11">
         <f t="shared" ref="G7:G14" si="0">(C7+D7+E7+F7)/4</f>
         <v>3.75</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="11">
         <f t="shared" ref="H7:H15" si="1">AVERAGE(C7:F7)</f>
         <v>3.75</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="11">
         <v>5</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="11">
         <v>5</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="11">
         <v>6</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="11">
         <v>5</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="11">
         <f t="shared" si="0"/>
         <v>5.25</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="11">
         <f t="shared" si="1"/>
         <v>5.25</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="11">
         <v>6</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="11">
         <v>4</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="11">
         <v>2</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="11">
         <v>0</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="11">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="11">
         <v>4.8</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="11">
         <v>8</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="11">
         <v>9</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="11">
         <v>5</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="11">
         <f t="shared" si="0"/>
         <v>6.7</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="11">
         <f t="shared" si="1"/>
         <v>6.7</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="11">
         <v>5</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="11">
         <v>5</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="11">
         <v>5.6</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="11">
         <v>5</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="11">
         <f t="shared" si="0"/>
         <v>5.15</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="11">
         <f t="shared" si="1"/>
         <v>5.15</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="11">
         <v>7</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="11">
         <v>3</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="11">
         <v>4</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="11">
         <v>8</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="11">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="11">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="11">
         <v>6</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="11">
         <v>4</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="11">
         <v>2</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="11">
         <v>0</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="11">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="11">
         <v>3</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="11">
         <v>5</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="11">
         <v>7</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="11">
         <v>6</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="11">
         <f t="shared" si="0"/>
         <v>5.25</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="11">
         <f t="shared" si="1"/>
         <v>5.25</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="11">
         <v>4</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="11">
         <v>7</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="11">
         <v>10</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="11">
         <v>9</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="11">
         <f>SUM(C15:F15)/4</f>
         <v>7.5</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="11">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="12">
         <f>AVERAGE(C6:C15)</f>
         <v>4.8499999999999996</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="12">
         <f t="shared" ref="D18:F18" si="2">AVERAGE(D6:D15)</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="12">
         <f t="shared" si="2"/>
         <v>5.46</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="12">
         <f t="shared" si="2"/>
         <v>5.4</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="12">
         <f>AVERAGE(G6:G15)</f>
         <v>5.1524999999999999</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="10">
         <f>COUNTA(C6:C15)</f>
         <v>10</v>
       </c>
@@ -1684,7 +1824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:R22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -1694,315 +1834,315 @@
     <col min="5" max="5" width="4.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
     <col min="9" max="9" width="5.28515625" customWidth="1"/>
-    <col min="11" max="11" width="5" style="17" customWidth="1"/>
+    <col min="11" max="11" width="5" style="13" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" customWidth="1"/>
     <col min="13" max="13" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="52"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="47"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="40"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="36"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="34" t="s">
+      <c r="E7" s="27"/>
+      <c r="F7" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="34" t="s">
+      <c r="G7" s="22"/>
+      <c r="H7" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="36" t="s">
+      <c r="I7" s="16"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="M7" s="41"/>
+      <c r="M7" s="37"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="34" t="s">
+      <c r="E8" s="24"/>
+      <c r="F8" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="34" t="s">
+      <c r="I8" s="24"/>
+      <c r="J8" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="25"/>
-      <c r="L8" s="36" t="s">
+      <c r="K8" s="21"/>
+      <c r="L8" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="M8" s="42"/>
-      <c r="O8" s="53" t="s">
+      <c r="M8" s="38"/>
+      <c r="O8" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="55"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="50"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="34" t="s">
+      <c r="G9" s="23"/>
+      <c r="H9" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="34" t="s">
+      <c r="I9" s="25"/>
+      <c r="J9" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="36" t="s">
+      <c r="K9" s="21"/>
+      <c r="L9" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="M9" s="42"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="58"/>
+      <c r="M9" s="38"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="53"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="34" t="s">
+      <c r="E10" s="24"/>
+      <c r="F10" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="H10" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="34" t="s">
+      <c r="I10" s="24"/>
+      <c r="J10" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="K10" s="25"/>
-      <c r="L10" s="36" t="s">
+      <c r="K10" s="21"/>
+      <c r="L10" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="M10" s="42"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="58"/>
+      <c r="M10" s="38"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="53"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="34" t="s">
+      <c r="D11" s="30"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="33" t="s">
+      <c r="K11" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="L11" s="36" t="s">
+      <c r="L11" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="M11" s="43" t="s">
+      <c r="M11" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="O11" s="56"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="58"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="53"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="34" t="s">
+      <c r="C12" s="24"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K12" s="26"/>
-      <c r="L12" s="36" t="s">
+      <c r="K12" s="22"/>
+      <c r="L12" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="M12" s="42"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="61"/>
+      <c r="M12" s="38"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="56"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="34"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="42"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="38"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="34"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="34" t="s">
+      <c r="B14" s="30"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="42"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="38"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="34"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="34" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="34" t="s">
+      <c r="E15" s="24"/>
+      <c r="F15" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="42"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="38"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="34"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="34" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="34" t="s">
+      <c r="E16" s="16"/>
+      <c r="F16" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="42"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="38"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="35"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="35" t="s">
+      <c r="B17" s="31"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="45" t="s">
+      <c r="G17" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="35"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="47"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="43"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="62">
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="57">
         <f>COUNTA(C7:C17,E7:E17,G7:G17,I7:I17,K7:K17,M7:M17)</f>
         <v>10</v>
       </c>
@@ -2011,25 +2151,25 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="63">
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="58">
         <f>F22-F20</f>
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="63">
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="58">
         <f>COUNTA(B7:B17,D7:D17,F7:F17,H7:H17,J7:J17,L7:L17)</f>
         <v>35</v>
       </c>
@@ -2042,4 +2182,558 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:F22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="12">
+        <f>MAX(C6:C15)</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="11">
+        <v>6.4249999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="11">
+        <v>3.75</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="12">
+        <f>MIN(C6:C15)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="11">
+        <v>5.25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="11">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="11">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="11">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="11">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="11">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="16"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="16"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:T25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="O3" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+    </row>
+    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+    </row>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C5" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="O5" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+    </row>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C6" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="O6" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C8" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="O8" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+    </row>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C9" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="O9" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+    </row>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="O10" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C11" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="O11" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C12" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="O12" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C14" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C15" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C17" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C18" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C20" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C21" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C23" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C24" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="O3:T3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/conceito_funcoes.xlsx
+++ b/conceito_funcoes.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Vivência 1" sheetId="1" r:id="rId1"/>
     <sheet name="Vivência 2" sheetId="2" r:id="rId2"/>
     <sheet name="Vivência 3" sheetId="3" r:id="rId3"/>
     <sheet name="Vivência 4" sheetId="4" r:id="rId4"/>
-    <sheet name="Planilha2" sheetId="5" r:id="rId5"/>
+    <sheet name="Conceito Funções" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -923,45 +923,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -977,12 +938,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -992,8 +947,53 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1279,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,43 +1291,43 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="66">
+      <c r="C4" s="51">
         <v>872</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="66">
+      <c r="C5" s="51">
         <v>925</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="66">
+      <c r="C6" s="51">
         <v>978</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1344,18 +1344,18 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="66"/>
+      <c r="C7" s="51"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="66">
+      <c r="C8" s="51">
         <v>1084</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1372,29 +1372,29 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="66">
+      <c r="C9" s="51">
         <v>1137</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="66">
+      <c r="C10" s="51">
         <v>1190</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
       <c r="K10" s="2"/>
       <c r="L10" s="7">
         <f>COUNT(C4:C18)</f>
@@ -1402,18 +1402,18 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="66"/>
+      <c r="C11" s="51"/>
       <c r="K11" s="3"/>
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="66">
+      <c r="C12" s="51">
         <v>1296</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -1430,50 +1430,50 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="66">
+      <c r="C13" s="51">
         <v>1349</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="66">
+      <c r="C14" s="51">
         <v>1402</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="66">
+      <c r="C15" s="51">
         <v>1455</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="66">
+      <c r="C16" s="51">
         <v>1508</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="66">
+      <c r="C17" s="51">
         <v>1561</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="66">
+      <c r="C18" s="51">
         <v>1614</v>
       </c>
     </row>
@@ -1840,20 +1840,20 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="47"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="58"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="33"/>
@@ -1922,12 +1922,12 @@
         <v>70</v>
       </c>
       <c r="M8" s="38"/>
-      <c r="O8" s="48" t="s">
+      <c r="O8" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="50"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="61"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="30" t="s">
@@ -1958,10 +1958,10 @@
         <v>71</v>
       </c>
       <c r="M9" s="38"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="53"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="64"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
@@ -1992,10 +1992,10 @@
         <v>72</v>
       </c>
       <c r="M10" s="38"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="53"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="64"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="30" t="s">
@@ -2022,10 +2022,10 @@
       <c r="M11" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="O11" s="51"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="53"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="64"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="30" t="s">
@@ -2046,10 +2046,10 @@
         <v>74</v>
       </c>
       <c r="M12" s="38"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="56"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="67"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="30"/>
@@ -2142,7 +2142,7 @@
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
-      <c r="F20" s="57">
+      <c r="F20" s="44">
         <f>COUNTA(C7:C17,E7:E17,G7:G17,I7:I17,K7:K17,M7:M17)</f>
         <v>10</v>
       </c>
@@ -2157,7 +2157,7 @@
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
-      <c r="F21" s="58">
+      <c r="F21" s="45">
         <f>F22-F20</f>
         <v>25</v>
       </c>
@@ -2169,7 +2169,7 @@
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
-      <c r="F22" s="58">
+      <c r="F22" s="45">
         <f>COUNTA(B7:B17,D7:D17,F7:F17,H7:H17,J7:J17,L7:L17)</f>
         <v>35</v>
       </c>
@@ -2331,7 +2331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:T25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
@@ -2341,392 +2341,392 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="O3" s="64" t="s">
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="O3" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
     </row>
     <row r="4" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
     </row>
     <row r="5" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="O5" s="60" t="s">
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="O5" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
     </row>
     <row r="6" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="O6" s="60" t="s">
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="O6" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
     </row>
     <row r="7" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
     </row>
     <row r="8" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="O8" s="60" t="s">
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="O8" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
     </row>
     <row r="9" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="O9" s="60" t="s">
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="O9" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
     </row>
     <row r="10" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="O10" s="60" t="s">
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="O10" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
     </row>
     <row r="11" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="O11" s="60" t="s">
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="O11" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
     </row>
     <row r="12" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="O12" s="60" t="s">
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="O12" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
     </row>
     <row r="13" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
     </row>
     <row r="14" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
     </row>
     <row r="15" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
     </row>
     <row r="16" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="2">
